--- a/src/main/resources/each-merge-template.xlsx
+++ b/src/main/resources/each-merge-template.xlsx
@@ -24,7 +24,7 @@
     </comment>
     <comment authorId="0" ref="A6">
       <text>
-        <t xml:space="preserve">jx:each-merge(items="departments" var="department" childItems="employees" lastCell="E7")</t>
+        <t xml:space="preserve">jx:each-merge(items="departments" var="department" lastCell="E7")</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6">
@@ -97,7 +97,10 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <sz val="8.0"/>
